--- a/biology/Zoologie/Anolis_marmoratus/Anolis_marmoratus.xlsx
+++ b/biology/Zoologie/Anolis_marmoratus/Anolis_marmoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis marmoratus, ou Ctenonotus marmoratus, est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis marmoratus, ou Ctenonotus marmoratus, est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aux Antilles françaises, le nom créole de ce lézard s'écrit zanndoli, zandoli ou zanoli.</t>
@@ -542,12 +556,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 82 mm et les femelles jusqu'à 56 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 82 mm et les femelles jusqu'à 56 mm.
 Cette espèce, à l'instar des caméléons, peut changer de couleur en fonction de divers paramètres tels que l'humeur, les conditions externes, la période, bien que de façon moins spectaculaire que la plupart des caméléons.
 Les mâles sont dotés d'un fanon gulaire, qu'ils déploient pour impressionner les autres mâles (ce sont des animaux territoriaux) et pour séduire les femelles.
-Les anolis vivent dans les bosquets, autour des maisons, dans les arbres et dans les murs de brique où il fait chaud et où ils aiment sommeiller[3].
+Les anolis vivent dans les bosquets, autour des maisons, dans les arbres et dans les murs de brique où il fait chaud et où ils aiment sommeiller.
 			Anolis marmoratus en mue.
 			Mâle déployant son fanon gulaire.
 </t>
@@ -580,13 +596,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Les anolis marmoratus se nourrissent d'insectes et en particulier de moustiques.
-Reproduction
-La reproduction des anolis se fait de mai à octobre ; la femelle pond en général 6 œufs. Le territoire du mâle est petit. Il le défend en se battant, souvent jusqu'à la mort, contre l'intrusion d'un autre mâle[3].
-Prédation
-Anolis marmoratus fait occasionnellement partie du régime alimentaire du Pic de Guadeloupe qui le donne à consommer à ses oisillons en période de nidification[4].
-</t>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les anolis marmoratus se nourrissent d'insectes et en particulier de moustiques.</t>
         </is>
       </c>
     </row>
@@ -611,13 +628,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est originellement endémique de Guadeloupe[1].
-Elle a été introduite en Guyane et Martinique.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La reproduction des anolis se fait de mai à octobre ; la femelle pond en général 6 œufs. Le territoire du mâle est petit. Il le défend en se battant, souvent jusqu'à la mort, contre l'intrusion d'un autre mâle.
 </t>
         </is>
       </c>
@@ -643,17 +666,128 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prédation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis marmoratus fait occasionnellement partie du régime alimentaire du Pic de Guadeloupe qui le donne à consommer à ses oisillons en période de nidification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originellement endémique de Guadeloupe.
+Elle a été introduite en Guyane et Martinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxinomie
-Les sous-espèces Anolis marmoratus ferreus, Anolis marmoratus terraealtae, Anolis marmoratus chrysops, Anolis marmoratus desiradei et Anolis marmoratus kahouannensis ont été élevées au rang d'espèce.
-Anolis marmoratus caryae est considérée comme une espèce à part entière par Roughgarden[5] et Breuil[6].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Anolis marmoratus ferreus, Anolis marmoratus terraealtae, Anolis marmoratus chrysops, Anolis marmoratus desiradei et Anolis marmoratus kahouannensis ont été élevées au rang d'espèce.
+Anolis marmoratus caryae est considérée comme une espèce à part entière par Roughgarden et Breuil.
 Dans les zones où les populations se recouvrent de nombreuses sous-espèces se reproduisent entre elles.
-Liste des sous-espèces
-La classification la plus actualisée, répartit la population en sept sous-espèces[7]. Selon The Reptile Database   (19 décembre 2013)[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anolis_marmoratus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification la plus actualisée, répartit la population en sept sous-espèces. Selon The Reptile Database   (19 décembre 2013) :
 </t>
         </is>
       </c>
